--- a/2023/BCom/Sem 1_result.xlsx
+++ b/2023/BCom/Sem 1_result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,7 +460,7 @@
     <col width="31" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="33" customWidth="1" min="4" max="4"/>
-    <col width="34" customWidth="1" min="5" max="5"/>
+    <col width="32" customWidth="1" min="5" max="5"/>
     <col width="35" customWidth="1" min="6" max="6"/>
     <col width="50" customWidth="1" min="7" max="7"/>
     <col width="38" customWidth="1" min="8" max="8"/>
@@ -482,7 +482,7 @@
     <col width="13" customWidth="1" min="24" max="24"/>
     <col width="11" customWidth="1" min="25" max="25"/>
     <col width="12" customWidth="1" min="26" max="26"/>
-    <col width="10" customWidth="1" min="27" max="27"/>
+    <col width="11" customWidth="1" min="27" max="27"/>
     <col width="10" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
@@ -509,7 +509,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>BCACAEN101 - Office Automation-2</t>
+          <t>BCACAEN101 - Office automation</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -16871,7 +16871,11 @@
       <c r="Z126" s="2" t="n">
         <v>78.70999999999999</v>
       </c>
-      <c r="AA126" s="2" t="inlineStr"/>
+      <c r="AA126" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB126" s="2" t="n">
         <v>7.66</v>
       </c>
@@ -27009,7 +27013,11 @@
       <c r="Z204" s="2" t="n">
         <v>71.56999999999999</v>
       </c>
-      <c r="AA204" s="2" t="inlineStr"/>
+      <c r="AA204" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB204" s="2" t="n">
         <v>7.58</v>
       </c>
@@ -28957,7 +28965,11 @@
       <c r="Z219" s="3" t="n">
         <v>70.29000000000001</v>
       </c>
-      <c r="AA219" s="3" t="inlineStr"/>
+      <c r="AA219" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB219" s="3" t="n">
         <v>7.5</v>
       </c>
@@ -34545,7 +34557,11 @@
       <c r="Z262" s="2" t="n">
         <v>64.14</v>
       </c>
-      <c r="AA262" s="2" t="inlineStr"/>
+      <c r="AA262" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB262" s="2" t="n">
         <v>5.84</v>
       </c>
@@ -36233,7 +36249,11 @@
       <c r="Z275" s="3" t="n">
         <v>62.71</v>
       </c>
-      <c r="AA275" s="3" t="inlineStr"/>
+      <c r="AA275" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB275" s="3" t="n">
         <v>6.08</v>
       </c>
@@ -37791,7 +37811,11 @@
       <c r="Z287" s="3" t="n">
         <v>61.57</v>
       </c>
-      <c r="AA287" s="3" t="inlineStr"/>
+      <c r="AA287" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB287" s="3" t="n">
         <v>5.78</v>
       </c>
@@ -38049,7 +38073,11 @@
       <c r="Z289" s="3" t="n">
         <v>61.57</v>
       </c>
-      <c r="AA289" s="3" t="inlineStr"/>
+      <c r="AA289" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB289" s="3" t="n">
         <v>5.74</v>
       </c>
@@ -38827,7 +38855,11 @@
       <c r="Z295" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="AA295" s="3" t="inlineStr"/>
+      <c r="AA295" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB295" s="3" t="n">
         <v>5.7</v>
       </c>
@@ -40385,7 +40417,11 @@
       <c r="Z307" s="3" t="n">
         <v>59.43</v>
       </c>
-      <c r="AA307" s="3" t="inlineStr"/>
+      <c r="AA307" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB307" s="3" t="n">
         <v>5.8</v>
       </c>
@@ -40513,7 +40549,11 @@
       <c r="Z308" s="2" t="n">
         <v>59.29</v>
       </c>
-      <c r="AA308" s="2" t="inlineStr"/>
+      <c r="AA308" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB308" s="2" t="n">
         <v>5.5</v>
       </c>
@@ -41421,7 +41461,11 @@
       <c r="Z315" s="3" t="n">
         <v>58.86</v>
       </c>
-      <c r="AA315" s="3" t="inlineStr"/>
+      <c r="AA315" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB315" s="3" t="n">
         <v>5.5</v>
       </c>
@@ -41809,7 +41853,11 @@
       <c r="Z318" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="AA318" s="2" t="inlineStr"/>
+      <c r="AA318" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB318" s="2" t="n">
         <v>5.74</v>
       </c>
@@ -42197,7 +42245,11 @@
       <c r="Z321" s="3" t="n">
         <v>57.86</v>
       </c>
-      <c r="AA321" s="3" t="inlineStr"/>
+      <c r="AA321" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB321" s="3" t="n">
         <v>4.82</v>
       </c>
@@ -42455,7 +42507,11 @@
       <c r="Z323" s="3" t="n">
         <v>57.71</v>
       </c>
-      <c r="AA323" s="3" t="inlineStr"/>
+      <c r="AA323" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB323" s="3" t="n">
         <v>4.68</v>
       </c>
@@ -42713,7 +42769,11 @@
       <c r="Z325" s="3" t="n">
         <v>57.43</v>
       </c>
-      <c r="AA325" s="3" t="inlineStr"/>
+      <c r="AA325" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB325" s="3" t="n">
         <v>4.06</v>
       </c>
@@ -42971,7 +43031,11 @@
       <c r="Z327" s="3" t="n">
         <v>57.29</v>
       </c>
-      <c r="AA327" s="3" t="inlineStr"/>
+      <c r="AA327" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB327" s="3" t="n">
         <v>5.12</v>
       </c>
@@ -43229,7 +43293,11 @@
       <c r="Z329" s="3" t="n">
         <v>56.86</v>
       </c>
-      <c r="AA329" s="3" t="inlineStr"/>
+      <c r="AA329" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB329" s="3" t="n">
         <v>4.64</v>
       </c>
@@ -43487,7 +43555,11 @@
       <c r="Z331" s="3" t="n">
         <v>56.29</v>
       </c>
-      <c r="AA331" s="3" t="inlineStr"/>
+      <c r="AA331" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB331" s="3" t="n">
         <v>5.24</v>
       </c>
@@ -43615,7 +43687,11 @@
       <c r="Z332" s="2" t="n">
         <v>56.14</v>
       </c>
-      <c r="AA332" s="2" t="inlineStr"/>
+      <c r="AA332" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB332" s="2" t="n">
         <v>5.26</v>
       </c>
@@ -44003,7 +44079,11 @@
       <c r="Z335" s="3" t="n">
         <v>56.14</v>
       </c>
-      <c r="AA335" s="3" t="inlineStr"/>
+      <c r="AA335" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB335" s="3" t="n">
         <v>4.68</v>
       </c>
@@ -44781,7 +44861,11 @@
       <c r="Z341" s="3" t="n">
         <v>55.57</v>
       </c>
-      <c r="AA341" s="3" t="inlineStr"/>
+      <c r="AA341" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB341" s="3" t="n">
         <v>4.6</v>
       </c>
@@ -45039,7 +45123,11 @@
       <c r="Z343" s="3" t="n">
         <v>55.43</v>
       </c>
-      <c r="AA343" s="3" t="inlineStr"/>
+      <c r="AA343" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB343" s="3" t="n">
         <v>5.38</v>
       </c>
@@ -45167,7 +45255,11 @@
       <c r="Z344" s="2" t="n">
         <v>55.43</v>
       </c>
-      <c r="AA344" s="2" t="inlineStr"/>
+      <c r="AA344" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB344" s="2" t="n">
         <v>4.74</v>
       </c>
@@ -45295,7 +45387,11 @@
       <c r="Z345" s="3" t="n">
         <v>55.29</v>
       </c>
-      <c r="AA345" s="3" t="inlineStr"/>
+      <c r="AA345" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB345" s="3" t="n">
         <v>5.14</v>
       </c>
@@ -45943,7 +46039,11 @@
       <c r="Z350" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="AA350" s="2" t="inlineStr"/>
+      <c r="AA350" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB350" s="2" t="n">
         <v>4.46</v>
       </c>
@@ -46331,7 +46431,11 @@
       <c r="Z353" s="3" t="n">
         <v>54.43</v>
       </c>
-      <c r="AA353" s="3" t="inlineStr"/>
+      <c r="AA353" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB353" s="3" t="n">
         <v>4.62</v>
       </c>
@@ -46459,7 +46563,11 @@
       <c r="Z354" s="2" t="n">
         <v>54.43</v>
       </c>
-      <c r="AA354" s="2" t="inlineStr"/>
+      <c r="AA354" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB354" s="2" t="n">
         <v>5.18</v>
       </c>
@@ -47107,7 +47215,11 @@
       <c r="Z359" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="AA359" s="3" t="inlineStr"/>
+      <c r="AA359" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB359" s="3" t="n">
         <v>5.14</v>
       </c>
@@ -47365,7 +47477,11 @@
       <c r="Z361" s="3" t="n">
         <v>53.86</v>
       </c>
-      <c r="AA361" s="3" t="inlineStr"/>
+      <c r="AA361" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB361" s="3" t="n">
         <v>4.26</v>
       </c>
@@ -47623,7 +47739,11 @@
       <c r="Z363" s="3" t="n">
         <v>53.29</v>
       </c>
-      <c r="AA363" s="3" t="inlineStr"/>
+      <c r="AA363" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB363" s="3" t="n">
         <v>3.82</v>
       </c>
@@ -47751,7 +47871,11 @@
       <c r="Z364" s="2" t="n">
         <v>53.14</v>
       </c>
-      <c r="AA364" s="2" t="inlineStr"/>
+      <c r="AA364" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB364" s="2" t="n">
         <v>4.26</v>
       </c>
@@ -47879,7 +48003,11 @@
       <c r="Z365" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="AA365" s="3" t="inlineStr"/>
+      <c r="AA365" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB365" s="3" t="n">
         <v>4.66</v>
       </c>
@@ -48657,7 +48785,11 @@
       <c r="Z371" s="3" t="n">
         <v>52.14</v>
       </c>
-      <c r="AA371" s="3" t="inlineStr"/>
+      <c r="AA371" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB371" s="3" t="n">
         <v>3.16</v>
       </c>
@@ -48785,7 +48917,11 @@
       <c r="Z372" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="AA372" s="2" t="inlineStr"/>
+      <c r="AA372" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB372" s="2" t="n">
         <v>4.24</v>
       </c>
@@ -49173,7 +49309,11 @@
       <c r="Z375" s="3" t="n">
         <v>51.86</v>
       </c>
-      <c r="AA375" s="3" t="inlineStr"/>
+      <c r="AA375" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB375" s="3" t="n">
         <v>4.32</v>
       </c>
@@ -49301,7 +49441,11 @@
       <c r="Z376" s="2" t="n">
         <v>51.71</v>
       </c>
-      <c r="AA376" s="2" t="inlineStr"/>
+      <c r="AA376" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB376" s="2" t="n">
         <v>4.86</v>
       </c>
@@ -49559,7 +49703,11 @@
       <c r="Z378" s="2" t="n">
         <v>50.86</v>
       </c>
-      <c r="AA378" s="2" t="inlineStr"/>
+      <c r="AA378" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB378" s="2" t="n">
         <v>4.26</v>
       </c>
@@ -49687,7 +49835,11 @@
       <c r="Z379" s="3" t="n">
         <v>50.71</v>
       </c>
-      <c r="AA379" s="3" t="inlineStr"/>
+      <c r="AA379" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB379" s="3" t="n">
         <v>3.7</v>
       </c>
@@ -49815,7 +49967,11 @@
       <c r="Z380" s="2" t="n">
         <v>50.57</v>
       </c>
-      <c r="AA380" s="2" t="inlineStr"/>
+      <c r="AA380" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB380" s="2" t="n">
         <v>3.66</v>
       </c>
@@ -50073,7 +50229,11 @@
       <c r="Z382" s="2" t="n">
         <v>50.14</v>
       </c>
-      <c r="AA382" s="2" t="inlineStr"/>
+      <c r="AA382" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB382" s="2" t="n">
         <v>4.4</v>
       </c>
@@ -50201,7 +50361,11 @@
       <c r="Z383" s="3" t="n">
         <v>50.14</v>
       </c>
-      <c r="AA383" s="3" t="inlineStr"/>
+      <c r="AA383" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB383" s="3" t="n">
         <v>4.84</v>
       </c>
@@ -50459,7 +50623,11 @@
       <c r="Z385" s="3" t="n">
         <v>49.71</v>
       </c>
-      <c r="AA385" s="3" t="inlineStr"/>
+      <c r="AA385" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB385" s="3" t="n">
         <v>4.06</v>
       </c>
@@ -50587,7 +50755,11 @@
       <c r="Z386" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="AA386" s="2" t="inlineStr"/>
+      <c r="AA386" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB386" s="2" t="n">
         <v>3</v>
       </c>
@@ -50715,7 +50887,11 @@
       <c r="Z387" s="3" t="n">
         <v>48.33</v>
       </c>
-      <c r="AA387" s="3" t="inlineStr"/>
+      <c r="AA387" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB387" s="3" t="n">
         <v>4.05</v>
       </c>
@@ -51233,7 +51409,11 @@
       <c r="Z391" s="3" t="n">
         <v>47.71</v>
       </c>
-      <c r="AA391" s="3" t="inlineStr"/>
+      <c r="AA391" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB391" s="3" t="n">
         <v>4.64</v>
       </c>
@@ -51361,7 +51541,11 @@
       <c r="Z392" s="2" t="n">
         <v>47.5</v>
       </c>
-      <c r="AA392" s="2" t="inlineStr"/>
+      <c r="AA392" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB392" s="2" t="n">
         <v>2.79</v>
       </c>
@@ -51489,7 +51673,11 @@
       <c r="Z393" s="3" t="n">
         <v>47.14</v>
       </c>
-      <c r="AA393" s="3" t="inlineStr"/>
+      <c r="AA393" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB393" s="3" t="n">
         <v>2.6</v>
       </c>
@@ -51617,7 +51805,11 @@
       <c r="Z394" s="2" t="n">
         <v>47.14</v>
       </c>
-      <c r="AA394" s="2" t="inlineStr"/>
+      <c r="AA394" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB394" s="2" t="n">
         <v>2.16</v>
       </c>
@@ -51745,7 +51937,11 @@
       <c r="Z395" s="3" t="n">
         <v>47.14</v>
       </c>
-      <c r="AA395" s="3" t="inlineStr"/>
+      <c r="AA395" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB395" s="3" t="n">
         <v>3.4</v>
       </c>
@@ -51873,7 +52069,11 @@
       <c r="Z396" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="AA396" s="2" t="inlineStr"/>
+      <c r="AA396" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB396" s="2" t="n">
         <v>3</v>
       </c>
@@ -52261,7 +52461,11 @@
       <c r="Z399" s="3" t="n">
         <v>46.43</v>
       </c>
-      <c r="AA399" s="3" t="inlineStr"/>
+      <c r="AA399" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB399" s="3" t="n">
         <v>2.84</v>
       </c>
@@ -52389,7 +52593,11 @@
       <c r="Z400" s="2" t="n">
         <v>45.71</v>
       </c>
-      <c r="AA400" s="2" t="inlineStr"/>
+      <c r="AA400" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB400" s="2" t="n">
         <v>3.94</v>
       </c>
@@ -52517,7 +52725,11 @@
       <c r="Z401" s="3" t="n">
         <v>45.67</v>
       </c>
-      <c r="AA401" s="3" t="inlineStr"/>
+      <c r="AA401" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB401" s="3" t="n">
         <v>3.64</v>
       </c>
@@ -52645,7 +52857,11 @@
       <c r="Z402" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="AA402" s="2" t="inlineStr"/>
+      <c r="AA402" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB402" s="2" t="n">
         <v>2.86</v>
       </c>
@@ -52773,7 +52989,11 @@
       <c r="Z403" s="3" t="n">
         <v>44.67</v>
       </c>
-      <c r="AA403" s="3" t="inlineStr"/>
+      <c r="AA403" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB403" s="3" t="n">
         <v>3.18</v>
       </c>
@@ -52901,7 +53121,11 @@
       <c r="Z404" s="2" t="n">
         <v>44.57</v>
       </c>
-      <c r="AA404" s="2" t="inlineStr"/>
+      <c r="AA404" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB404" s="2" t="n">
         <v>3.04</v>
       </c>
@@ -53159,7 +53383,11 @@
       <c r="Z406" s="2" t="n">
         <v>44.29</v>
       </c>
-      <c r="AA406" s="2" t="inlineStr"/>
+      <c r="AA406" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB406" s="2" t="n">
         <v>2.64</v>
       </c>
@@ -53287,7 +53515,11 @@
       <c r="Z407" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="AA407" s="3" t="inlineStr"/>
+      <c r="AA407" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB407" s="3" t="n">
         <v>2.75</v>
       </c>
@@ -53545,7 +53777,11 @@
       <c r="Z409" s="3" t="n">
         <v>43.5</v>
       </c>
-      <c r="AA409" s="3" t="inlineStr"/>
+      <c r="AA409" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB409" s="3" t="n">
         <v>0</v>
       </c>
@@ -53673,7 +53909,11 @@
       <c r="Z410" s="2" t="n">
         <v>43.43</v>
       </c>
-      <c r="AA410" s="2" t="inlineStr"/>
+      <c r="AA410" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB410" s="2" t="n">
         <v>1.36</v>
       </c>
@@ -53801,7 +54041,11 @@
       <c r="Z411" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="AA411" s="3" t="inlineStr"/>
+      <c r="AA411" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB411" s="3" t="n">
         <v>2.6</v>
       </c>
@@ -54059,7 +54303,11 @@
       <c r="Z413" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="AA413" s="3" t="inlineStr"/>
+      <c r="AA413" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB413" s="3" t="n">
         <v>3</v>
       </c>
@@ -54447,7 +54695,11 @@
       <c r="Z416" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="AA416" s="2" t="inlineStr"/>
+      <c r="AA416" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB416" s="2" t="n">
         <v>2.25</v>
       </c>
@@ -54705,7 +54957,11 @@
       <c r="Z418" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="AA418" s="2" t="inlineStr"/>
+      <c r="AA418" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB418" s="2" t="n">
         <v>0</v>
       </c>
@@ -54833,7 +55089,11 @@
       <c r="Z419" s="3" t="n">
         <v>40.43</v>
       </c>
-      <c r="AA419" s="3" t="inlineStr"/>
+      <c r="AA419" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB419" s="3" t="n">
         <v>2.3</v>
       </c>
@@ -54961,7 +55221,11 @@
       <c r="Z420" s="2" t="n">
         <v>39.14</v>
       </c>
-      <c r="AA420" s="2" t="inlineStr"/>
+      <c r="AA420" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB420" s="2" t="n">
         <v>1.88</v>
       </c>
@@ -55089,7 +55353,11 @@
       <c r="Z421" s="3" t="n">
         <v>39.14</v>
       </c>
-      <c r="AA421" s="3" t="inlineStr"/>
+      <c r="AA421" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB421" s="3" t="n">
         <v>2.46</v>
       </c>
@@ -55217,7 +55485,11 @@
       <c r="Z422" s="2" t="n">
         <v>38.86</v>
       </c>
-      <c r="AA422" s="2" t="inlineStr"/>
+      <c r="AA422" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB422" s="2" t="n">
         <v>2.66</v>
       </c>
@@ -55345,7 +55617,11 @@
       <c r="Z423" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AA423" s="3" t="inlineStr"/>
+      <c r="AA423" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB423" s="3" t="n">
         <v>0</v>
       </c>
@@ -55473,7 +55749,11 @@
       <c r="Z424" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="AA424" s="2" t="inlineStr"/>
+      <c r="AA424" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB424" s="2" t="n">
         <v>0</v>
       </c>
@@ -55601,7 +55881,11 @@
       <c r="Z425" s="3" t="n">
         <v>37.29</v>
       </c>
-      <c r="AA425" s="3" t="inlineStr"/>
+      <c r="AA425" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB425" s="3" t="n">
         <v>3.2</v>
       </c>
@@ -55729,7 +56013,11 @@
       <c r="Z426" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="AA426" s="2" t="inlineStr"/>
+      <c r="AA426" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB426" s="2" t="n">
         <v>2.14</v>
       </c>
@@ -55857,7 +56145,11 @@
       <c r="Z427" s="3" t="n">
         <v>35.75</v>
       </c>
-      <c r="AA427" s="3" t="inlineStr"/>
+      <c r="AA427" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB427" s="3" t="n">
         <v>2.5</v>
       </c>
@@ -55985,7 +56277,11 @@
       <c r="Z428" s="2" t="n">
         <v>35.5</v>
       </c>
-      <c r="AA428" s="2" t="inlineStr"/>
+      <c r="AA428" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB428" s="2" t="n">
         <v>0</v>
       </c>
@@ -56113,7 +56409,11 @@
       <c r="Z429" s="3" t="n">
         <v>33.86</v>
       </c>
-      <c r="AA429" s="3" t="inlineStr"/>
+      <c r="AA429" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB429" s="3" t="n">
         <v>1.72</v>
       </c>
@@ -56241,7 +56541,11 @@
       <c r="Z430" s="2" t="n">
         <v>29.4</v>
       </c>
-      <c r="AA430" s="2" t="inlineStr"/>
+      <c r="AA430" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB430" s="2" t="n">
         <v>2.03</v>
       </c>
@@ -56369,7 +56673,11 @@
       <c r="Z431" s="3" t="n">
         <v>28.75</v>
       </c>
-      <c r="AA431" s="3" t="inlineStr"/>
+      <c r="AA431" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB431" s="3" t="n">
         <v>1.18</v>
       </c>
@@ -56497,7 +56805,11 @@
       <c r="Z432" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="AA432" s="2" t="inlineStr"/>
+      <c r="AA432" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB432" s="2" t="n">
         <v>0</v>
       </c>
@@ -56625,7 +56937,11 @@
       <c r="Z433" s="3" t="n">
         <v>14.75</v>
       </c>
-      <c r="AA433" s="3" t="inlineStr"/>
+      <c r="AA433" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB433" s="3" t="n">
         <v>1.6</v>
       </c>
@@ -56753,7 +57069,11 @@
       <c r="Z434" s="2" t="n">
         <v>14.4</v>
       </c>
-      <c r="AA434" s="2" t="inlineStr"/>
+      <c r="AA434" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB434" s="2" t="n">
         <v>1.11</v>
       </c>
@@ -56881,7 +57201,11 @@
       <c r="Z435" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AA435" s="3" t="inlineStr"/>
+      <c r="AA435" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB435" s="3" t="n">
         <v>0</v>
       </c>
@@ -57009,7 +57333,11 @@
       <c r="Z436" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AA436" s="2" t="inlineStr"/>
+      <c r="AA436" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB436" s="2" t="n">
         <v>0</v>
       </c>
@@ -57137,7 +57465,11 @@
       <c r="Z437" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AA437" s="3" t="inlineStr"/>
+      <c r="AA437" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB437" s="3" t="n">
         <v>0</v>
       </c>
@@ -57265,7 +57597,11 @@
       <c r="Z438" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AA438" s="2" t="inlineStr"/>
+      <c r="AA438" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
       <c r="AB438" s="2" t="n">
         <v>0</v>
       </c>
